--- a/TCC/APS/DescricaoClasse/DescricaoClasse_Veiculo_Morador.xlsx
+++ b/TCC/APS/DescricaoClasse/DescricaoClasse_Veiculo_Morador.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoh\OneDrive\Documentos\GitHub\Etec\TCC\APS\DescricaoClasse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\userlocal\Documents\GitHub\Etec\TCC\APS\DescricaoClasse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C83E35BE-94C7-40D3-8A7B-8585CF0E2154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{29E55B46-B42C-4169-8D6D-5B793B852B5C}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -171,7 +170,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,15 +234,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,6 +249,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,11 +572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B7B3F1-A9B0-47EC-957E-E7A8337CCC5A}">
-  <dimension ref="C1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,232 +589,232 @@
     <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
+    <row r="9" spans="3:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="4">
         <v>7</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="3:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F10" s="4">
         <v>15</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="3:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H11" s="4">
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
+    <row r="12" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F12" s="4">
         <v>10</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C12" s="7" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="9"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="9"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="9"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="9"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="9"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="9"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="E7:H7"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
-    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="C6:H6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
